--- a/Python/output/case-study/penalty-SA-FA-KPI-2.xlsx
+++ b/Python/output/case-study/penalty-SA-FA-KPI-2.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA66D162-C457-E849-B38D-81D994517836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="9040" windowWidth="27640" windowHeight="16940" xr2:uid="{60485845-0DA1-2945-B400-7013F7AAED40}"/>
+    <workbookView xWindow="18320" yWindow="9040" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Penalty_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -891,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A8650-BA40-9747-BAF7-E491450859F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,13 +926,13 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>31788.614450000001</v>
+        <v>42513.1734527312</v>
       </c>
       <c r="C2">
-        <v>26146.6738</v>
+        <v>33118.949563653397</v>
       </c>
       <c r="D2">
-        <v>1768.6137859999999</v>
+        <v>2544.5345776603399</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -933,13 +940,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>40407.842239999998</v>
+        <v>51034.926623059298</v>
       </c>
       <c r="C3">
-        <v>37492.258309999997</v>
+        <v>46262.082057428001</v>
       </c>
       <c r="D3">
-        <v>835.29144919999999</v>
+        <v>1086.46838883687</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>46957.52276</v>
+        <v>57112.915270917998</v>
       </c>
       <c r="C4">
-        <v>46443.850839999999</v>
+        <v>56454.975324331201</v>
       </c>
       <c r="D4">
-        <v>456.10405559999998</v>
+        <v>604.96069714873897</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -961,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>54207.156210000001</v>
+        <v>63007.909681115802</v>
       </c>
       <c r="C5">
-        <v>58580.428460000003</v>
+        <v>68562.771937708501</v>
       </c>
       <c r="D5">
-        <v>316.23340830000001</v>
+        <v>317.52897093294598</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -975,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60105.522239999998</v>
+        <v>67367.497565674304</v>
       </c>
       <c r="C6">
-        <v>68367.510880000002</v>
+        <v>76588.465222119106</v>
       </c>
       <c r="D6">
-        <v>188.10034379999999</v>
+        <v>194.49880903383101</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/penalty-SA-FA-KPI-2.xlsx
+++ b/Python/output/case-study/penalty-SA-FA-KPI-2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A62D4-3244-AB45-A0C8-A87738406355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="9040" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="17160" yWindow="6060" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Penalty_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -898,11 +899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,13 +927,13 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>42513.1734527312</v>
+        <v>55362.410812222202</v>
       </c>
       <c r="C2">
-        <v>33118.949563653397</v>
+        <v>33697.043609875996</v>
       </c>
       <c r="D2">
-        <v>2544.5345776603399</v>
+        <v>2193.1172996027399</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -940,13 +941,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>51034.926623059298</v>
+        <v>69820.805069573005</v>
       </c>
       <c r="C3">
-        <v>46262.082057428001</v>
+        <v>46807.970267315301</v>
       </c>
       <c r="D3">
-        <v>1086.46838883687</v>
+        <v>845.64969969155095</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -954,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>57112.915270917998</v>
+        <v>80646.822443359095</v>
       </c>
       <c r="C4">
-        <v>56454.975324331201</v>
+        <v>57222.045606976899</v>
       </c>
       <c r="D4">
-        <v>604.96069714873897</v>
+        <v>433.707665566819</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -968,13 +969,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>63007.909681115802</v>
+        <v>92969.225991601095</v>
       </c>
       <c r="C5">
-        <v>68562.771937708501</v>
+        <v>69300.607644599106</v>
       </c>
       <c r="D5">
-        <v>317.52897093294598</v>
+        <v>189.86615494682499</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -982,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67367.497565674304</v>
+        <v>100453.238144067</v>
       </c>
       <c r="C6">
-        <v>76588.465222119106</v>
+        <v>76723.548080766705</v>
       </c>
       <c r="D6">
-        <v>194.49880903383101</v>
+        <v>128.79443864645</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/penalty-SA-FA-KPI-2.xlsx
+++ b/Python/output/case-study/penalty-SA-FA-KPI-2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A62D4-3244-AB45-A0C8-A87738406355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="6060" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="8960" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Penalty_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -899,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,13 +926,13 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>55362.410812222202</v>
+        <v>55359.223852715098</v>
       </c>
       <c r="C2">
-        <v>33697.043609875996</v>
+        <v>33694.234850465</v>
       </c>
       <c r="D2">
-        <v>2193.1172996027399</v>
+        <v>2193.49549969895</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -941,13 +940,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>69820.805069573005</v>
+        <v>69796.677594866298</v>
       </c>
       <c r="C3">
-        <v>46807.970267315301</v>
+        <v>46783.842901226097</v>
       </c>
       <c r="D3">
-        <v>845.64969969155095</v>
+        <v>845.64980830880904</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -955,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>80646.822443359095</v>
+        <v>80743.654556177498</v>
       </c>
       <c r="C4">
-        <v>57222.045606976899</v>
+        <v>57316.646779459297</v>
       </c>
       <c r="D4">
-        <v>433.707665566819</v>
+        <v>431.47672523089102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -969,10 +968,10 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>92969.225991601095</v>
+        <v>92971.7131604608</v>
       </c>
       <c r="C5">
-        <v>69300.607644599106</v>
+        <v>69303.094813458898</v>
       </c>
       <c r="D5">
         <v>189.86615494682499</v>
@@ -983,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>100453.238144067</v>
+        <v>100465.33189307401</v>
       </c>
       <c r="C6">
-        <v>76723.548080766705</v>
+        <v>76735.641829743996</v>
       </c>
       <c r="D6">
-        <v>128.79443864645</v>
+        <v>128.79443861830501</v>
       </c>
     </row>
   </sheetData>
